--- a/Testdata/TC_42.xlsx
+++ b/Testdata/TC_42.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Cx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3W0nmU2iSq98y6yFHUe2Qyb7gsrdlbhJdbfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrOrU6dOnXOVxX07o1PjSsSMS8MDir1mlUxSOCErhdcHFRifl6tP6q8a6PujUPoMY6wTzgIG6AVsP0b5h1UZpzP903z+vq6dr1VC6MLs2FZdfPJoD92ZsTHVS9gHAcOqaRa7tu1KjZqu/6AcOxijpXmQaU37tXaxHM6QBvgAF+QqNaKmRcQxroB97hHmNCMCOak3Rl8Ry3MbtQe1erIXKFnkq3Yo66SK0gqupaDacnE84ndsOq7VWu3ulWfWHv7jZ39xnZtz9p7P1FMBVEfMz4m0ZXnSMKYY38u1a3drbq119hpbCNzrRDYygJgoyF1R+TKY8RtE0pZqYiYegObDodVlwumhcycrjb0cBceR3g+m3icknJujAYtww+0L5kRGx2GEXEgfg9y6YhcDyMd1sm8D9zJzIv4ooMXpW2dMBIN5yJI5VRt1AkD3qQk4idz2GviQioAw+ZRTJB5DzNT6njMgW8viIlrn2PK8koFJjoNo0s2xw45gnNsChvXAQ2xCwnHPcY9J5t0hYGOo3AOFmHyVkjdQ7CqhdcwUsu9AEIspm2F4WXm3Tomkrsq9xf21Mc8EV+ho/EsvB4GdDGOp8yJvClxO61Eei0PiQOptdsx46EPXmQkpGg5ygL+wQFcJqMOcTwf02MKQWT2FlgpEFAz5uG5x9shjf2AJT4tUdEprGhCbtIVpmM0hM0NRNDDoBcsWVnLK2qMwutkC1fpMgg5cpM5yXavMpaFO0BLtm+VI3dErPLQo9Af8nuRoxazYjwjhK9NCcVBohQeio5jNylFZjZEkJaQ2uCGbUHTqMqfiWXtyx+YNmWjbuDeL5cw0VHsD6dwfK/kguw68JZICJZAWxQHl0A99fjsqJm4voaD1ILvlV/lITioc4oXkpwGJU9DvcChsUvU+e8F5zIjhW9qD+9loxVSH460jXCwmCzmUIaZt8/h46ACjXmf8Qhaf8V2wjjg0UIUCmRq0bfpsHgayAkw3VjnPCLfjwFxLA7jwGmH7uazuSo6J4HHN/cwjCNV/TZXkdEThTBmHSJKiqzxG+s7ZdbEolLifkD8MPCczaMNQRbeuw9YCEtO1cYaRJ2vjeUptHHV5cRZ31gtArgIfa3UNE3GQseTyaqPh5vTN+85Mh1yjmMKUI1DR71IC/MyGTXZ5bJMnoROIpoUPFsAYQZI2HH9mgNYQaC9mhP6gmACAD0dIzMvLwCPQ7rBRR8HFzFAirSuLNPTciva4STCARPLSRHEUuVdL4SSOqWQjZ0vSchcYqIJ8edhhOkAouEd6lzTmAjgxgDzmR5B+6LESSJrZqqpVtGdxNu3iclGpHwXp1zXxiWiFBKZqYB2JpPRkKjLAziLtI2pN41UKU3a9Toe7FIGAJOiKxZXEgwmgYfLFnTYb5OFQODZQNNlntYThspaUT3t8Wh7t7FjbTUAvYgxkiseEUyNLpxgToxecEUY90Ft3xgR5rnw5WG6b7xHpsSDzidDpDe6tHZeDx0mxV260gR/i5SiAGCKCw96x6pgyskU7DOCI7rICaql9kMH5O5+/O/b3zx/9eKzu4+evvnih//9x69e/fNnt89+BB93f/3b7ce/VMtUwmiCp5RIhyat3V1rC25kGQmJ4JoS/rqxwyXt7Eyi3nSM9OVNDtrdXvtxvyWLSEpM1FUfMcW9cBHG2XCsFiEnkltqJpmgROxJUpT0uMDN9SVb3NOuSFE6z79PUcXi9cvPXr/8873aOmAZwKrv7e1U64234i+48dZX5FL81S8UfiG8XbV2qo1GTnhJBo1U1U/j1HNtcaG2GltWPS3gbprI64SWWdrSBF+YS3qK1FaYKE2B/DhhysSfwBFJ2eoo5AY6Rb/4yZu/PC1I6ehqStEKOCexi5jMTAbS9NFoYoyHJ6N215h0xyJPMl5OThn/GmE9e3qeCkkVBDGm3zKgo0MHMypw66kY4blBsDMzFnASc+ewkGzrqGqiB5pc9vJxFMZztSM5hYy6RjKtJms11tQayZPxXCk6GWuNuPL19u+fr1PQC+lkKDZ948jTUIGjSDm+PrWf/uvVlx++evHi7vnPb7/8QcGCnie9+kOew2nKD9O0h5Kn+80SBZ2OZTAvre/m+osmitvTcegFnNn1R/LipEcIVOvCmvyNej60PGlYxgvoSxT0HmbdG64Ptn2EzCIB/Jxj6LZhdr9MCaqGZ3H9z29/d/frz+8+ef7mwz/dfvTH248/ef3y92+e/UGdurunz+9++kxX+eVGIH0Rt1aF/Az5BuIY4jQaoncbX33wCyMIuQGQw4hlRfrqg09zxoSjEpxklgHHpY4UXVgRzSsLPSPnSupDQS9VUQCgLVrYViqhm1g495xskverwpQ4d5Lxjd6kGjNihICmvgkrKQpnypvqaRXVUo/fsRr1huYqb8QSppjlQv+YhlMAGQlDPjIsiRS0vl4hk5XzPe4PW81+JqKcGEYuiUQaqg+UQErRUnosGSWplqMAF4CfE1PxLrQitspKLefKmKkfWM6brih/698nChKoHUeRAkSBfq8fx3MAw8kz3P18+TSZw79HCqvmEXE27nWKfBjnuNAIi2xBkHxZmjRLlakeE285Cs4eidBkQ+AVnjMhHPpJXiGtK8CVkSnqTjeKwmht8ck4idgAkDRUFDOLeCoj91Shbjfbq4SQFLz0Q1339ArDDqGEl3uvNjPtQXj1YF3Y+7KqPTakrg5muatHGpbMQP7RXiTK//tmr5KtGUUArMQjX+lH9uS2OoJLbklv1FKkorgBwuz6FfzQixh/IiqB/lKUs5RyphDqE3u7oXDoE0U4Ezcw9aEXqa2bBTeTo8vVn05C2vd8r+S10ErOd9EIxHI+VxCuVy5TRGs5IjcAMHMWoChOvwdtQz2elLGmEhZqaaovHiyZdzHjZR17Z4qJS6ZW1ZmSRnXbtXare4RsVet1+B87jYZl7YjnTm0cKodHrktOYiYblv1J0/4fH3iQMQsdAAA=</t>
+          <t>BB8AAB+LCAAAAAAAAAOlWetvI0kR/1dG/gQSzjzs5JKoMyfHdnIWThzFDtncF9SeaSdNxjNmuieJvx0S6NBxCCG0h46n+HQIiWUFd9Kxy+N/OW2yyyf+Baof87Kd20xYRdrpqvpVV1dXV1W30bs308C4IjGjUbhTs9esmkFCL/JpeL5TS/ikbm/U3nVR98YjwRGO8ZRwEDYAFbLtG0Z3ahecz7ZN8/r6eu26sRbF56ZjWbb55KA/9C7IFNdpyDgOPVLLUP7bUTUXtf3pAeHYxxwr5E6tN+yttQn1OkA7wCE+J/HabsJoSBjrhpxySphAxgRz0u4cfEctzHXWNtZsZC7Rc8ndhAa+kitJKrqWg2nJiE6J61iOVbc2605zZFvbtr3daKxZ7zTfT4GZIOpjxockvqKeJAw5ns4k3Np0mrZl240GMlcKga7cAS4aBP4xuaKM+G0SBKySR0y9gS2Pw6qrOdNCZgGrFT3ehP0Yzy5GlAekKnwviokHjnrU3IfkehBr/41mfeCOLmjM5x08r6zrhJF4MBPeqAZ1UScKeSsgMT+ZwaYSH/YcGC6PE4LMe5g5qEOZB980TIjvTnDAiqASE51G8SWbYY8cwoE1hY7rMIiwD5HFKePUyyddYqCjOJqBRph8Nwr8PdCqhVcwMs29EFwspt2NosvculVMJGNARgPs6RTzVHyJjoYX0fUgDObDZMy8mI6J39lNpVfykDh5Gt1OGI+mYEVOQopWoMzhH5y0RTLqEI9OcXAUgBOZC2e0TECthEcTyttRkExDltq0QEWnsKIRuclWmI3RADY3FE6Pwl64oGUlr4w4jq7TLVymSycUyC3mpdu9zFgU7gAt3b5ljtwRsco9GkAhKO5FgVqOiuEFIXxlSCgOEjlvT5QWtxUEyMyHCMISQhvMcC2oDnX5N7KsbfkH02Zs1A39++VSJjpMpoMxHN8ruSDXBt4CCcESgt0Ah5dAPaX84rCVmr6Cg9SC75Vf5iE4qLMAzyU5c0qRhnqhFyQ+Uee/F05kRArb1B7ey0ZLpD4caRfhcD6azyDfMrrN4WOnBhV4m/EYanzN9aIk5PFcJApkatG3YVgyDuUEOHgwZhKT7yfQWsz3ktBrR/7DZ/OVd05Cyh9uYZTEKvs9HCK9JxJhwjpEpBSZ4x+M96qsicWVxKchmUYh9R7ubXCysN5/xEJYeqoejCDqfD1YPoAyrqqcOOsPhsXQF0JdqzRNi7HIozJY9fHwC3jzniPTIROcBNCTcaio51liXiSjFrtclCmS0EkcpAnPFR0vg5bX86drHvQKoq1b86KpIJjQaZ4OkVmUFw2PR7rheR+H5wm0FFleWaRn6VaUw1GMQyaWk3UQC5l3tRBK85TqbNxiSkLmAhONyHQWxTg4AG/QPR1ruieCduMA8ws9gvIVEC/1rJlDM1TZnNTat4nJQqRsF6dc58YFohQSkak66lwmpyGRlw/gLAZtHNBxrFJpWq5X8WCX8gYwTbpicRWbwdTxcKuCCvttMhetdj7QdBmndspQUSuypzs8bm4661bDge5FjJFc8THBgdGFE8yJ0QuvCONTgG0bx4RRH74oDraN98iYUKh80kV6oyujizi0lyZ3aUoL7C1TygLQU5xTqB3LghknB7hnBMfBvCColtqPPJC7+/G/b3/z/NWLz+4+evrmix/+9x+/evXPn90++xF83P31b7cf/1ItUwmjER4HRBo02t3ctBpNiLOMhIRzTdn++onHJe3sTHa92RjpW5octLu99n5/VyaRjJjCVR0xxQVwHiX5cKgWISeSW2qmkaBE3FGalPS4xC3UJVdcyK5IWbrIvw+ofPH65WevX/75XrR2WN5g2Vtb63XbeWv/5cCVdkku67/6pcQvhJt1a73uOAXhBRl0rLJ+5qee7zZsa8tyGpadJXA/C+RVQossrWmEz80FnCK1VU+UhUBxnDJl4I/giGRsdRQKAx2iX/zkzV+elqS0dzWlrAWMk72LmMxMB1L14fHIGA5OjttdY9QdijjJeQU5pfxrhPXs2XkqBVUYJjj4lgEVHSqYUYNbT82IJgbB3oUxh5NYOIelYFtFVRM9UuWilftxlMzUjhQAOXWFZJZNViJW5BrJk/5cSjo5a4W4svX275+vAuiFdPIu1j0+2DWmYRaXkoZKHEUq8PWp/fRfr7788NWLF3fPf3775Q9KGvQ82dUf4hxOU3GYhT2kPF1vFijodCideWl9t1BfNFHcno4iGnLm2hvy4qRHCKC20Cb/R70plDypWPoL6AsU9B5m3RuuD7Z7iMwyAeycYai2UX6/zAgqh+d+/c9vf3f368/vPnn+5sM/3X70x9uPP3n98vdvnv1Bnbq7p8/vfvpMZ/nFQiBtEbdW1fkZ8g3EM8RpNETtNr764BdGGHEDWg4jkRnpqw8+LSgThsrmJNcMfVxmSNmEJdEiWOCMgimZDSVcBlENQFuUsEYmoYtYNKNePsn7daFKnDvJ+EZvVE8YMSLopr4JKykL5+CH4jREldSjdyzHdjRXWSOWMMas4Pr9IBpDk5Ey5CPDgkgJ9fWAXFbOt98f7Lb6uYgyYhD7JBZhqD5Qj6VNZRpeBQpwodnzkkC8BS2JLbNQ+lVIXaZ+VJm0fJHyVr9JlCRQO4lj1QSF+jF+mMygAU6f3u7ny+fIQs97qPrTYhecj3udMh/GBS4UvzJbECRfpiPNUqmpx8T7jWphD4Vr8iHwSk+Y4A793q66qyvoJWNT5JpuHEfxyoSTc1KxA+ieIYuYucczGVNMqTptP9+rlJAmuexDXfH0CqMOCQiv/Bidog+iq0djYe+rQntsEPjamdWuG5lbcgXFF3kRKFWNacUxtE3iCa/yE3qfhpe9aqt3N7cmE4s4m/4GtpvE32pONsh4s+lY64SMmxA1Sqm4fQoV4uYi7m7VJoFmsQzPL9fHcN2uqE05WALFXRQ8JQ+kTuzZGO3RmPEnIkXpL0U5yyhnqnV+4sp1yi9JOBMGqw/9M42ezCxZneYXrn68iYI+ndKK91UrTUJlJRAGs5nqLatuKNS8Q3IDnW9BA2Tr8fegnqlXnSra1KmCJJ/hU13DZFxZnZmCj4AvAutx6K4Pfdnj0fKnEBr8HwbIzuuxKnoho+cXvOq+OltbDbJBnLoz8bx6EwZ1qMbjuo8nW7ZlTRr+uiOesbVyqA6UXFecRNQUyuBeUR1nLvyW7f4PKCSZ4gQfAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -731,4 +731,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>43</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C181490-94FA-4DA1-A195-F87CB88D42B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_42.xlsx
+++ b/Testdata/TC_42.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BB8AAB+LCAAAAAAAAAOlWetvI0kR/1dG/gQSzjzs5JKoMyfHdnIWThzFDtncF9SeaSdNxjNmuieJvx0S6NBxCCG0h46n+HQIiWUFd9Kxy+N/OW2yyyf+Baof87Kd20xYRdrpqvpVV1dXV1W30bs308C4IjGjUbhTs9esmkFCL/JpeL5TS/ikbm/U3nVR98YjwRGO8ZRwEDYAFbLtG0Z3ahecz7ZN8/r6eu26sRbF56ZjWbb55KA/9C7IFNdpyDgOPVLLUP7bUTUXtf3pAeHYxxwr5E6tN+yttQn1OkA7wCE+J/HabsJoSBjrhpxySphAxgRz0u4cfEctzHXWNtZsZC7Rc8ndhAa+kitJKrqWg2nJiE6J61iOVbc2605zZFvbtr3daKxZ7zTfT4GZIOpjxockvqKeJAw5ns4k3Np0mrZl240GMlcKga7cAS4aBP4xuaKM+G0SBKySR0y9gS2Pw6qrOdNCZgGrFT3ehP0Yzy5GlAekKnwviokHjnrU3IfkehBr/41mfeCOLmjM5x08r6zrhJF4MBPeqAZ1UScKeSsgMT+ZwaYSH/YcGC6PE4LMe5g5qEOZB980TIjvTnDAiqASE51G8SWbYY8cwoE1hY7rMIiwD5HFKePUyyddYqCjOJqBRph8Nwr8PdCqhVcwMs29EFwspt2NosvculVMJGNARgPs6RTzVHyJjoYX0fUgDObDZMy8mI6J39lNpVfykDh5Gt1OGI+mYEVOQopWoMzhH5y0RTLqEI9OcXAUgBOZC2e0TECthEcTyttRkExDltq0QEWnsKIRuclWmI3RADY3FE6Pwl64oGUlr4w4jq7TLVymSycUyC3mpdu9zFgU7gAt3b5ljtwRsco9GkAhKO5FgVqOiuEFIXxlSCgOEjlvT5QWtxUEyMyHCMISQhvMcC2oDnX5N7KsbfkH02Zs1A39++VSJjpMpoMxHN8ruSDXBt4CCcESgt0Ah5dAPaX84rCVmr6Cg9SC75Vf5iE4qLMAzyU5c0qRhnqhFyQ+Uee/F05kRArb1B7ey0ZLpD4caRfhcD6azyDfMrrN4WOnBhV4m/EYanzN9aIk5PFcJApkatG3YVgyDuUEOHgwZhKT7yfQWsz3ktBrR/7DZ/OVd05Cyh9uYZTEKvs9HCK9JxJhwjpEpBSZ4x+M96qsicWVxKchmUYh9R7ubXCysN5/xEJYeqoejCDqfD1YPoAyrqqcOOsPhsXQF0JdqzRNi7HIozJY9fHwC3jzniPTIROcBNCTcaio51liXiSjFrtclCmS0EkcpAnPFR0vg5bX86drHvQKoq1b86KpIJjQaZ4OkVmUFw2PR7rheR+H5wm0FFleWaRn6VaUw1GMQyaWk3UQC5l3tRBK85TqbNxiSkLmAhONyHQWxTg4AG/QPR1ruieCduMA8ws9gvIVEC/1rJlDM1TZnNTat4nJQqRsF6dc58YFohQSkak66lwmpyGRlw/gLAZtHNBxrFJpWq5X8WCX8gYwTbpicRWbwdTxcKuCCvttMhetdj7QdBmndspQUSuypzs8bm4661bDge5FjJFc8THBgdGFE8yJ0QuvCONTgG0bx4RRH74oDraN98iYUKh80kV6oyujizi0lyZ3aUoL7C1TygLQU5xTqB3LghknB7hnBMfBvCColtqPPJC7+/G/b3/z/NWLz+4+evrmix/+9x+/evXPn90++xF83P31b7cf/1ItUwmjER4HRBo02t3ctBpNiLOMhIRzTdn++onHJe3sTHa92RjpW5octLu99n5/VyaRjJjCVR0xxQVwHiX5cKgWISeSW2qmkaBE3FGalPS4xC3UJVdcyK5IWbrIvw+ofPH65WevX/75XrR2WN5g2Vtb63XbeWv/5cCVdkku67/6pcQvhJt1a73uOAXhBRl0rLJ+5qee7zZsa8tyGpadJXA/C+RVQossrWmEz80FnCK1VU+UhUBxnDJl4I/giGRsdRQKAx2iX/zkzV+elqS0dzWlrAWMk72LmMxMB1L14fHIGA5OjttdY9QdijjJeQU5pfxrhPXs2XkqBVUYJjj4lgEVHSqYUYNbT82IJgbB3oUxh5NYOIelYFtFVRM9UuWilftxlMzUjhQAOXWFZJZNViJW5BrJk/5cSjo5a4W4svX275+vAuiFdPIu1j0+2DWmYRaXkoZKHEUq8PWp/fRfr7788NWLF3fPf3775Q9KGvQ82dUf4hxOU3GYhT2kPF1vFijodCideWl9t1BfNFHcno4iGnLm2hvy4qRHCKC20Cb/R70plDypWPoL6AsU9B5m3RuuD7Z7iMwyAeycYai2UX6/zAgqh+d+/c9vf3f368/vPnn+5sM/3X70x9uPP3n98vdvnv1Bnbq7p8/vfvpMZ/nFQiBtEbdW1fkZ8g3EM8RpNETtNr764BdGGHEDWg4jkRnpqw8+LSgThsrmJNcMfVxmSNmEJdEiWOCMgimZDSVcBlENQFuUsEYmoYtYNKNePsn7daFKnDvJ+EZvVE8YMSLopr4JKykL5+CH4jREldSjdyzHdjRXWSOWMMas4Pr9IBpDk5Ey5CPDgkgJ9fWAXFbOt98f7Lb6uYgyYhD7JBZhqD5Qj6VNZRpeBQpwodnzkkC8BS2JLbNQ+lVIXaZ+VJm0fJHyVr9JlCRQO4lj1QSF+jF+mMygAU6f3u7ny+fIQs97qPrTYhecj3udMh/GBS4UvzJbECRfpiPNUqmpx8T7jWphD4Vr8iHwSk+Y4A793q66qyvoJWNT5JpuHEfxyoSTc1KxA+ieIYuYucczGVNMqTptP9+rlJAmuexDXfH0CqMOCQiv/Bidog+iq0djYe+rQntsEPjamdWuG5lbcgXFF3kRKFWNacUxtE3iCa/yE3qfhpe9aqt3N7cmE4s4m/4GtpvE32pONsh4s+lY64SMmxA1Sqm4fQoV4uYi7m7VJoFmsQzPL9fHcN2uqE05WALFXRQ8JQ+kTuzZGO3RmPEnIkXpL0U5yyhnqnV+4sp1yi9JOBMGqw/9M42ezCxZneYXrn68iYI+ndKK91UrTUJlJRAGs5nqLatuKNS8Q3IDnW9BA2Tr8fegnqlXnSra1KmCJJ/hU13DZFxZnZmCj4AvAutx6K4Pfdnj0fKnEBr8HwbIzuuxKnoho+cXvOq+OltbDbJBnLoz8bx6EwZ1qMbjuo8nW7ZlTRr+uiOesbVyqA6UXFecRNQUyuBeUR1nLvyW7f4PKCSZ4gQfAAA=</t>
+          <t>Cx0AAB+LCAAAAAAAAAOlWVtvI0kV/istP4GE3W0nmU2iSq98y6yFHUe2Qyb7gsrdlbhJdbfpqk7it0UCLVoWIYRm0XIVT4uQGEawKy0zXP7LapIZnvgLnLr0zXZ23GEUTbrOrU6dOnXOVxX07o1PjSsSMS8MDir1mlUxSOCErhdcHFRifl6tP6q8a6PujUPoMY6wTzgIG6AVsP0b5h1UZpzP903z+vq6dr1VC6MLs2FZdfPJoD92ZsTHVS9gHAcOqaRa7tu1KjZqu/6AcOxijpXmQaU37tXaxHM6QBvgAF+QqNaKmRcQxroB97hHmNCMCOak3Rl8Ry3MbtQe1erIXKFnkq3Yo66SK0gqupaDacnE84ndsOq7VWu3ulWfWHv7jZ39xnZtz9p7P1FMBVEfMz4m0ZXnSMKYY38u1a3drbq119hpbCNzrRDYygJgoyF1R+TKY8RtE0pZqYiYegObDodVlwumhcycrjb0cBceR3g+m3icknJujAYtww+0L5kRGx2GEXEgfg9y6YhcDyMd1sm8D9zJzIv4ooMXpW2dMBIN5yJI5VRt1AkD3qQk4idz2GviQioAw+ZRTJB5DzNT6njMgW8viIlrn2PK8koFJjoNo0s2xw45gnNsChvXAQ2xCwnHPcY9J5t0hYGOo3AOFmHyVkjdQ7CqhdcwUsu9AEIspm2F4WXm3Tomkrsq9xf21Mc8EV+ho/EsvB4GdDGOp8yJvClxO61Eei0PiQOptdsx46EPXmQkpGg5ygL+wQFcJqMOcTwf02MKQWT2FlgpEFAz5uG5x9shjf2AJT4tUdEprGhCbtIVpmM0hM0NRNDDoBcsWVnLK2qMwutkC1fpMgg5cpM5yXavMpaFO0BLtm+VI3dErPLQo9Af8nuRoxazYjwjhK9NCcVBohQeio5jNylFZjZEkJaQ2uCGbUHTqMqfiWXtyx+YNmWjbuDeL5cw0VHsD6dwfK/kguw68JZICJZAWxQHl0A99fjsqJm4voaD1ILvlV/lITioc4oXkpwGJU9DvcChsUvU+e8F5zIjhW9qD+9loxVSH460jXCwmCzmUIaZt8/h46ACjXmf8Qhaf8V2wjjg0UIUCmRq0bfpsHgayAkw3VjnPCLfjwFxLA7jwGmH7uazuSo6J4HHN/cwjCNV/TZXkdEThTBmHSJKiqzxG+s7ZdbEolLifkD8MPCczaMNQRbeuw9YCEtO1cYaRJ2vjeUptHHV5cRZ31gtArgIfa3UNE3GQseTyaqPh5vTN+85Mh1yjmMKUI1DR71IC/MyGTXZ5bJMnoROIpoUPFsAYQZI2HH9mgNYQaC9mhP6gmACAD0dIzMvLwCPQ7rBRR8HFzFAirSuLNPTciva4STCARPLSRHEUuVdL4SSOqWQjZ0vSchcYqIJ8edhhOkAouEd6lzTmAjgxgDzmR5B+6LESSJrZqqpVtGdxNu3iclGpHwXp1zXxiWiFBKZqYB2JpPRkKjLAziLtI2pN41UKU3a9Toe7FIGAJOiKxZXEgwmgYfLFnTYb5OFQODZQNNlntYThspaUT3t8Wh7t7FjbTUAvYgxkiseEUyNLpxgToxecEUY90Ft3xgR5rnw5WG6b7xHpsSDzidDpDe6tHZeDx0mxV260gR/i5SiAGCKCw96x6pgyskU7DOCI7rICaql9kMH5O5+/O/b3zx/9eKzu4+evvnih//9x69e/fNnt89+BB93f/3b7ce/VMtUwmiCp5RIhyat3V1rC25kGQmJ4JoS/rqxwyXt7Eyi3nSM9OVNDtrdXvtxvyWLSEpM1FUfMcW9cBHG2XCsFiEnkltqJpmgROxJUpT0uMDN9SVb3NOuSFE6z79PUcXi9cvPXr/8873aOmAZwKrv7e1U64234i+48dZX5FL81S8UfiG8XbV2qo1GTnhJBo1U1U/j1HNtcaG2GltWPS3gbprI64SWWdrSBF+YS3qK1FaYKE2B/DhhysSfwBFJ2eoo5AY6Rb/4yZu/PC1I6ehqStEKOCexi5jMTAbS9NFoYoyHJ6N215h0xyJPMl5OThn/GmE9e3qeCkkVBDGm3zKgo0MHMypw66kY4blBsDMzFnASc+ewkGzrqGqiB5pc9vJxFMZztSM5hYy6RjKtJms11tQayZPxXCk6GWuNuPL19u+fr1PQC+lkKDZ948jTUIGjSDm+PrWf/uvVlx++evHi7vnPb7/8QcGCnie9+kOew2nKD9O0h5Kn+80SBZ2OZTAvre/m+osmitvTcegFnNn1R/LipEcIVOvCmvyNej60PGlYxgvoSxT0HmbdG64Ptn2EzCIB/Jxj6LZhdr9MCaqGZ3H9z29/d/frz+8+ef7mwz/dfvTH248/ef3y92+e/UGdurunz+9++kxX+eVGIH0Rt1aF/Az5BuIY4jQaoncbX33wCyMIuQGQw4hlRfrqg09zxoSjEpxklgHHpY4UXVgRzSsLPSPnSupDQS9VUQCgLVrYViqhm1g495xskverwpQ4d5Lxjd6kGjNihICmvgkrKQpnypvqaRXVUo/fsRr1huYqb8QSppjlQv+YhlMAGQlDPjIsiRS0vl4hk5XzPe4PW81+JqKcGEYuiUQaqg+UQErRUnosGSWplqMAF4CfE1PxLrQitspKLefKmKkfWM6brih/698nChKoHUeRAkSBfq8fx3MAw8kz3P18+TSZw79HCqvmEXE27nWKfBjnuNAIi2xBkHxZmjRLlakeE285Cs4eidBkQ+AVnjMhHPpJXiGtK8CVkSnqTjeKwmht8ck4idgAkDRUFDOLeCoj91Shbjfbq4SQFLz0Q1339ArDDqGEl3uvNjPtQXj1YF3Y+7KqPTakrg5muatHGpbMQP7RXiTK//tmr5KtGUUArMQjX+lH9uS2OoJLbklv1FKkorgBwuz6FfzQixh/IiqB/lKUs5RyphDqE3u7oXDoE0U4Ezcw9aEXqa2bBTeTo8vVn05C2vd8r+S10ErOd9EIxHI+VxCuVy5TRGs5IjcAMHMWoChOvwdtQz2elLGmEhZqaaovHiyZdzHjZR17Z4qJS6ZW1ZmSRnXbtXare4RsVet1+B87jYZl7YjnTm0cKodHrktOYiYblv1J0/4fH3iQMQsdAAA=</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -731,37 +731,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>43</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C181490-94FA-4DA1-A195-F87CB88D42B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>